--- a/заказы/филиалы и опт/2024/03,24/12,03,24 Ост СЫР филиалы/Заказ 13,03,24.xlsx
+++ b/заказы/филиалы и опт/2024/03,24/12,03,24 Ост СЫР филиалы/Заказ 13,03,24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,03,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\12,03,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900F682-E58A-401C-BCFF-292F4FFC1693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A4EE1-98E9-41F6-B4BB-6EB26F243996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Бердянск" sheetId="2" r:id="rId2"/>
     <sheet name="Донецк" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Бердянск!$A$1:$I$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Донецк!$A$1:$I$51</definedName>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="71">
   <si>
     <t>Артикул</t>
   </si>
@@ -240,6 +243,15 @@
   <si>
     <t>Творожный Сыр 60 % С маринованными огурчиками и укропом СТМ "ПапаМожет" 140гр</t>
   </si>
+  <si>
+    <t>Бердянск</t>
+  </si>
+  <si>
+    <t>Донецк</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
 </sst>
 </file>
 
@@ -357,7 +369,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -548,6 +566,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,6 +582,1673 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мелитополь"/>
+      <sheetName val="Бердянск"/>
+      <sheetName val="Донецк"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Наименование Контрагента</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Мелитополь</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Весовой сыр заполняется в этой колонке</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Бердянск</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>Донецк</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>Наличие</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Артикул</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Наименование</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Кол-во в коробе</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Заказ в штуках</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Заказ в кг для весовой продукции</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Заказ в коробах</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Вес 1 штучки или 1 бруса</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>Заказ в кг</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>Комментарии</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>6159826</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Сыр Российский сливочный 50% тм Папа Может, нарезанные ломтики 125 г (МИНИ)</v>
+          </cell>
+          <cell r="C3">
+            <v>9</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0.125</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3350098</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Сыр Российский ж.50% 200г фасовка ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C4">
+            <v>12</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0.2</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2700004</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Сыр Российский ж.50% вес ТМ Папа может (вл 4)</v>
+          </cell>
+          <cell r="C5">
+            <v>8</v>
+          </cell>
+          <cell r="D5">
+            <v>1500</v>
+          </cell>
+          <cell r="E5">
+            <v>1500</v>
+          </cell>
+          <cell r="F5">
+            <v>75</v>
+          </cell>
+          <cell r="G5">
+            <v>2.5</v>
+          </cell>
+          <cell r="H5">
+            <v>1500</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>Средний вес короба 20( вес 1 бруса 2,5 кг)</v>
+          </cell>
+          <cell r="J5">
+            <v>400</v>
+          </cell>
+          <cell r="K5">
+            <v>100</v>
+          </cell>
+          <cell r="L5">
+            <v>2000</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>Есть весь объем, но от другого производителя</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>6159796</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Сыр Голландский 45% тм Папа Может, нарезанные ломтики 125 г (МИНИ)</v>
+          </cell>
+          <cell r="C6">
+            <v>9</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0.125</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>3350104</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Сыр Голландский ж.45% 200г фасовка ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C7">
+            <v>12</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0.2</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>132</v>
+          </cell>
+          <cell r="L7">
+            <v>132</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>Есть весь объем, но от другого производителя</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>2700002</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Сыр Голландский ж.45% вес ТМ Папа может (вл 4)</v>
+          </cell>
+          <cell r="C8">
+            <v>8</v>
+          </cell>
+          <cell r="D8">
+            <v>800</v>
+          </cell>
+          <cell r="E8">
+            <v>800</v>
+          </cell>
+          <cell r="F8">
+            <v>40</v>
+          </cell>
+          <cell r="G8">
+            <v>2.5</v>
+          </cell>
+          <cell r="H8">
+            <v>800</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>Средний вес короба 20( вес 1 бруса 2,5 кг)</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>200</v>
+          </cell>
+          <cell r="L8">
+            <v>1000</v>
+          </cell>
+          <cell r="M8" t="str">
+            <v>Есть весь объем, но от другого производителя</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>5521103</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Сыр Гауда 45% тм Папа Может, нарезанные ломтики 125г (МИНИ)</v>
+          </cell>
+          <cell r="C9">
+            <v>9</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>0.125</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>3350111</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Сыр Гауда ж.45% 200г фасовка ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C10">
+            <v>12</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0.2</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>108</v>
+          </cell>
+          <cell r="K10">
+            <v>120</v>
+          </cell>
+          <cell r="L10">
+            <v>228</v>
+          </cell>
+          <cell r="M10" t="str">
+            <v>Есть весь объем, но от другого производителя</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2700005</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Сыр Гауда ж.45% вес ТМ Папа может (вл 4)</v>
+          </cell>
+          <cell r="C11">
+            <v>8</v>
+          </cell>
+          <cell r="D11">
+            <v>1800</v>
+          </cell>
+          <cell r="E11">
+            <v>1800</v>
+          </cell>
+          <cell r="F11">
+            <v>90</v>
+          </cell>
+          <cell r="G11">
+            <v>2.5</v>
+          </cell>
+          <cell r="H11">
+            <v>1800</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>Средний вес короба 20( вес 1 бруса 2,5 кг)</v>
+          </cell>
+          <cell r="J11">
+            <v>300</v>
+          </cell>
+          <cell r="K11">
+            <v>0</v>
+          </cell>
+          <cell r="L11">
+            <v>2100</v>
+          </cell>
+          <cell r="M11" t="str">
+            <v>Есть весь объем, но от другого производителя</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>6159833</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v xml:space="preserve">Сыр Тильзитер 50% тм Папа Может, нарезанные ломтики 125 г (МИНИ) </v>
+          </cell>
+          <cell r="C12">
+            <v>9</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0.125</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>3350128</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Сыр Тильзитер ж.45% 200г фасовка ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C13">
+            <v>12</v>
+          </cell>
+          <cell r="D13">
+            <v>420</v>
+          </cell>
+          <cell r="F13">
+            <v>35</v>
+          </cell>
+          <cell r="G13">
+            <v>0.2</v>
+          </cell>
+          <cell r="H13">
+            <v>84</v>
+          </cell>
+          <cell r="J13">
+            <v>132</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>552</v>
+          </cell>
+          <cell r="M13" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>2700001</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Сыр Тильзитер ж.45% вес ТМ Папа может (вл 4)</v>
+          </cell>
+          <cell r="C14">
+            <v>8</v>
+          </cell>
+          <cell r="D14">
+            <v>400</v>
+          </cell>
+          <cell r="E14">
+            <v>400</v>
+          </cell>
+          <cell r="F14">
+            <v>20</v>
+          </cell>
+          <cell r="G14">
+            <v>2.5</v>
+          </cell>
+          <cell r="H14">
+            <v>400</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>Средний вес короба 20( вес 1 бруса 2,5 кг)</v>
+          </cell>
+          <cell r="J14">
+            <v>420</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>820</v>
+          </cell>
+          <cell r="M14" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>6159819</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Сыр Папин завтрак 45% тм Папа Может, нарезанные ломтики 125 г (МИНИ)</v>
+          </cell>
+          <cell r="C15">
+            <v>9</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0.125</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>99876543</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Сыр Папин завтрак ж.50% 200г фасовка ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C16">
+            <v>12</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0.2</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>6159802</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Сыр Министерский 50% тм Папа Может, нарезанные ломтики 125 г (МИНИ)</v>
+          </cell>
+          <cell r="C17">
+            <v>9</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>0.125</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>99876550</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Сыр Министерский ж.45% 200г фасовка ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C18">
+            <v>12</v>
+          </cell>
+          <cell r="D18">
+            <v>108</v>
+          </cell>
+          <cell r="F18">
+            <v>9</v>
+          </cell>
+          <cell r="G18">
+            <v>0.2</v>
+          </cell>
+          <cell r="H18">
+            <v>21.6</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="K18">
+            <v>0</v>
+          </cell>
+          <cell r="L18">
+            <v>108</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>6159949</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Сыр Эдам 45% тм Папа Может, брус (2 шт)</v>
+          </cell>
+          <cell r="C19">
+            <v>2</v>
+          </cell>
+          <cell r="D19">
+            <v>210</v>
+          </cell>
+          <cell r="E19">
+            <v>210</v>
+          </cell>
+          <cell r="F19">
+            <v>30</v>
+          </cell>
+          <cell r="G19">
+            <v>3.5</v>
+          </cell>
+          <cell r="H19">
+            <v>210</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>Средний вес короба 7( вес 1 бруса 3,5кг)</v>
+          </cell>
+          <cell r="J19">
+            <v>70</v>
+          </cell>
+          <cell r="K19">
+            <v>0</v>
+          </cell>
+          <cell r="L19">
+            <v>280</v>
+          </cell>
+          <cell r="M19" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>6159901</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Сыр Сливочный со вкусом топленого молока 50% тм Папа Может, брус (2 шт)</v>
+          </cell>
+          <cell r="C20">
+            <v>2</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>3.5</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>Средний вес короба 7( вес 1 бруса 3,5кг)</v>
+          </cell>
+          <cell r="J20">
+            <v>805</v>
+          </cell>
+          <cell r="K20">
+            <v>7</v>
+          </cell>
+          <cell r="L20">
+            <v>812</v>
+          </cell>
+          <cell r="M20" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>99876321</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Масло сливочное ж.72,5% 180г фольга ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C21">
+            <v>12</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>0.18</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>99876352</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Масло сливочное ж.82,5% 180г фольга ТМ Папа может (вл 12)</v>
+          </cell>
+          <cell r="C22">
+            <v>12</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0.18</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>783798</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Сыч/Прод Коровино Российский 50% 200г  СЗМЖ</v>
+          </cell>
+          <cell r="C23">
+            <v>18</v>
+          </cell>
+          <cell r="D23">
+            <v>1278</v>
+          </cell>
+          <cell r="F23">
+            <v>71</v>
+          </cell>
+          <cell r="G23">
+            <v>0.2</v>
+          </cell>
+          <cell r="H23">
+            <v>255.60000000000002</v>
+          </cell>
+          <cell r="J23">
+            <v>234</v>
+          </cell>
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+          <cell r="L23">
+            <v>1512</v>
+          </cell>
+          <cell r="M23" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>783811</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Сыч/Прод Коровино Российский Оригин  50% вес  (3,5 кг брус) СЗМЖ</v>
+          </cell>
+          <cell r="C24">
+            <v>4</v>
+          </cell>
+          <cell r="D24">
+            <v>300</v>
+          </cell>
+          <cell r="E24">
+            <v>300</v>
+          </cell>
+          <cell r="F24">
+            <v>20</v>
+          </cell>
+          <cell r="G24">
+            <v>3.5</v>
+          </cell>
+          <cell r="H24">
+            <v>300</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>Средний вес короба 15( вес 1 бруса 3,5 кг)</v>
+          </cell>
+          <cell r="J24">
+            <v>105</v>
+          </cell>
+          <cell r="K24">
+            <v>105</v>
+          </cell>
+          <cell r="L24">
+            <v>510</v>
+          </cell>
+          <cell r="M24" t="str">
+            <v>Могу отдать 500кг</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>783804</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Сыч/Прод Коровино Тильзитер 50% 200г  СЗМЖ</v>
+          </cell>
+          <cell r="C25">
+            <v>18</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>0.2</v>
+          </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
+          <cell r="K25">
+            <v>0</v>
+          </cell>
+          <cell r="L25">
+            <v>0</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>Нет на остатках. Могу дозаказать на отгрузку на следующей неделе.</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>783828</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Сыч/Прод Коровино Тильзитер Оригин  50% вес  (3,5 кг брус) СЗМЖ</v>
+          </cell>
+          <cell r="C26">
+            <v>4</v>
+          </cell>
+          <cell r="D26">
+            <v>210</v>
+          </cell>
+          <cell r="E26">
+            <v>210</v>
+          </cell>
+          <cell r="F26">
+            <v>14</v>
+          </cell>
+          <cell r="G26">
+            <v>3.5</v>
+          </cell>
+          <cell r="H26">
+            <v>210</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>Средний вес короба 15( вес 1 бруса 3,5 кг)</v>
+          </cell>
+          <cell r="J26">
+            <v>210</v>
+          </cell>
+          <cell r="K26">
+            <v>300</v>
+          </cell>
+          <cell r="L26">
+            <v>720</v>
+          </cell>
+          <cell r="M26" t="str">
+            <v>Могу отдать только 700 кг</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>8784474</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v xml:space="preserve">Сыч/Прод Коровино Российский Оригин 50% вес (7,5 кг круг) СЗМЖ </v>
+          </cell>
+          <cell r="C27">
+            <v>2</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>7.5</v>
+          </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>Средний вес короба 15( вес 1 бруса 7,5 кг)</v>
+          </cell>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+          <cell r="L27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>9877076</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Сыр плавленый Сливочный  ж.55% 190г ТМ Папа может (8 вл)</v>
+          </cell>
+          <cell r="C28">
+            <v>8</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>0.19</v>
+          </cell>
+          <cell r="H28">
+            <v>0</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+          <cell r="K28">
+            <v>0</v>
+          </cell>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="M28" t="str">
+            <v>Нет на остатках. Могу дозаказать на отгрузку на следующей неделе.</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>8444194</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Сыр Чечил копченый 43% 100г/6шт ТМ Папа Может</v>
+          </cell>
+          <cell r="C29">
+            <v>6</v>
+          </cell>
+          <cell r="D29">
+            <v>114</v>
+          </cell>
+          <cell r="F29">
+            <v>19</v>
+          </cell>
+          <cell r="G29">
+            <v>0.1</v>
+          </cell>
+          <cell r="H29">
+            <v>11.4</v>
+          </cell>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
+          <cell r="K29">
+            <v>0</v>
+          </cell>
+          <cell r="L29">
+            <v>114</v>
+          </cell>
+          <cell r="M29" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>8444187</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Сыр Чечил свежий 45% 100г/6шт ТМ Папа Может</v>
+          </cell>
+          <cell r="C30">
+            <v>6</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0.1</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
+          <cell r="K30">
+            <v>0</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+          <cell r="M30" t="str">
+            <v>Нет на остатках. Могу дозаказать на отгрузку на следующей неделе.</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>8444163</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Сыр Боккончини копченый 40% 100г/8шт ТМ Папа Может</v>
+          </cell>
+          <cell r="C31">
+            <v>8</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>0.1</v>
+          </cell>
+          <cell r="H31">
+            <v>0</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+          <cell r="K31">
+            <v>0</v>
+          </cell>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>8444170</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Сыр Скаморца свежий 100г/8шт ТМ Папа Может</v>
+          </cell>
+          <cell r="C32">
+            <v>8</v>
+          </cell>
+          <cell r="D32">
+            <v>288</v>
+          </cell>
+          <cell r="F32">
+            <v>36</v>
+          </cell>
+          <cell r="G32">
+            <v>0.1</v>
+          </cell>
+          <cell r="H32">
+            <v>28.8</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+          <cell r="K32">
+            <v>0</v>
+          </cell>
+          <cell r="L32">
+            <v>288</v>
+          </cell>
+          <cell r="M32" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>9988377</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Творожный Сыр 60% Сливочный  СТМ "ПапаМожет"- 140гр</v>
+          </cell>
+          <cell r="C33">
+            <v>16</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+          <cell r="G33">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="H33">
+            <v>0</v>
+          </cell>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
+          <cell r="K33">
+            <v>0</v>
+          </cell>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>9988391</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Творожный Сыр 60 % С зеленью СТМ "ПапаМожет-" 140гр</v>
+          </cell>
+          <cell r="C34">
+            <v>16</v>
+          </cell>
+          <cell r="D34">
+            <v>368</v>
+          </cell>
+          <cell r="F34">
+            <v>23</v>
+          </cell>
+          <cell r="G34">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="H34">
+            <v>51.52</v>
+          </cell>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
+          <cell r="K34">
+            <v>32</v>
+          </cell>
+          <cell r="L34">
+            <v>400</v>
+          </cell>
+          <cell r="M34" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>5034819</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Сыр "Пармезан" (срок созревания 3 мес) м.д.ж. в с.в. 40% фас в газ.среда 180 г ОСТАНКИНО</v>
+          </cell>
+          <cell r="C35">
+            <v>6</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+          <cell r="G35">
+            <v>0.18</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="J35">
+            <v>360</v>
+          </cell>
+          <cell r="K35">
+            <v>12</v>
+          </cell>
+          <cell r="L35">
+            <v>372</v>
+          </cell>
+          <cell r="M35" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>5034864</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Сыр "Пармезан" (6 мес) м.д.ж. в с.в. 40% колотый, пакет полим, газ среда, 100 г ОСТАНКИНО</v>
+          </cell>
+          <cell r="C36">
+            <v>6</v>
+          </cell>
+          <cell r="D36">
+            <v>114</v>
+          </cell>
+          <cell r="F36">
+            <v>19</v>
+          </cell>
+          <cell r="G36">
+            <v>0.18</v>
+          </cell>
+          <cell r="H36">
+            <v>20.52</v>
+          </cell>
+          <cell r="J36">
+            <v>0</v>
+          </cell>
+          <cell r="K36">
+            <v>0</v>
+          </cell>
+          <cell r="L36">
+            <v>114</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>5037308</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Сыр "Пармезан" (срок созревания 3 месяцев) м.д.ж. в с.в. 40%  брус ОСТАНКИНО</v>
+          </cell>
+          <cell r="C37">
+            <v>3</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>4.5</v>
+          </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>Средний вес короба 13,5( вес 1 брус 4,5кг)</v>
+          </cell>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
+          <cell r="K37">
+            <v>0</v>
+          </cell>
+          <cell r="L37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>2981244</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Сыр «Алтайский Gold» («Алтайский Золотой») с м.д.ж. в сухом веществе 50%, ТМ "Останкино" цилиндр 1,5 кг</v>
+          </cell>
+          <cell r="C38">
+            <v>6</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+          <cell r="G38">
+            <v>1.3</v>
+          </cell>
+          <cell r="H38">
+            <v>0</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>Средний вес короба 7,8( вес 1 цилиндра 1,3кг)</v>
+          </cell>
+          <cell r="J38">
+            <v>0</v>
+          </cell>
+          <cell r="K38">
+            <v>0</v>
+          </cell>
+          <cell r="L38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>3402729</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Сыр порционированный Пармезан тертый с м.д.ж. в сухом веществе 40%, ТМ Останкино 90 г (12 шт)</v>
+          </cell>
+          <cell r="C39">
+            <v>12</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+          <cell r="G39">
+            <v>0.09</v>
+          </cell>
+          <cell r="H39">
+            <v>0</v>
+          </cell>
+          <cell r="J39">
+            <v>0</v>
+          </cell>
+          <cell r="K39">
+            <v>0</v>
+          </cell>
+          <cell r="L39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>3402712</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Сыр порционированный Три сыра тертый с м.д.ж. в сухом веществе 45%, ТМ Папа может 200 г (12 шт)</v>
+          </cell>
+          <cell r="C40">
+            <v>12</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+          <cell r="G40">
+            <v>0.2</v>
+          </cell>
+          <cell r="H40">
+            <v>0</v>
+          </cell>
+          <cell r="J40">
+            <v>0</v>
+          </cell>
+          <cell r="K40">
+            <v>0</v>
+          </cell>
+          <cell r="L40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>8785198</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Сыр полутвердый "Сметанковый", с массовой долей жира в пересчете на сухое вещество 50%,  брус из блока 1/5, пленка желтая, короб складной, ТМ "Папа мо</v>
+          </cell>
+          <cell r="C41">
+            <v>5</v>
+          </cell>
+          <cell r="F41">
+            <v>0</v>
+          </cell>
+          <cell r="G41">
+            <v>3.2</v>
+          </cell>
+          <cell r="H41">
+            <v>0</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>Средний вес короба 16,5( вес 1 брус 3,2кг)</v>
+          </cell>
+          <cell r="J41">
+            <v>0</v>
+          </cell>
+          <cell r="K41">
+            <v>0</v>
+          </cell>
+          <cell r="L41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>8785211</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Сыр полутвердый  "Сливочный", с массовой долей жира в пересчете на сухое вещество 50%, брус из блока 1/5, пленка желтая, короб складной, ТМ "Папа може</v>
+          </cell>
+          <cell r="C42">
+            <v>5</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+          <cell r="G42">
+            <v>3.2</v>
+          </cell>
+          <cell r="H42">
+            <v>0</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>Средний вес короба 16,5( вес 1 брус 3,2кг)</v>
+          </cell>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
+          <cell r="K42">
+            <v>0</v>
+          </cell>
+          <cell r="L42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>8785228</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Сыр полутвердый "Пошехонский", с массовой долей жира в пересчете на сухое вещество 45%, брус из блока 1/5, пленка желтая, короб складной, ТМ "Папа мож</v>
+          </cell>
+          <cell r="C43">
+            <v>5</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+          <cell r="G43">
+            <v>3.2</v>
+          </cell>
+          <cell r="H43">
+            <v>0</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v>Средний вес короба 16,5( вес 1 брус 3,2кг)</v>
+          </cell>
+          <cell r="J43">
+            <v>0</v>
+          </cell>
+          <cell r="K43">
+            <v>0</v>
+          </cell>
+          <cell r="L43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>9988452</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Плавленый Сыр колбасный копченый 40% СТМ "ПапаМожет" 400гр</v>
+          </cell>
+          <cell r="C44">
+            <v>8</v>
+          </cell>
+          <cell r="F44">
+            <v>0</v>
+          </cell>
+          <cell r="G44">
+            <v>0.4</v>
+          </cell>
+          <cell r="H44">
+            <v>0</v>
+          </cell>
+          <cell r="J44">
+            <v>0</v>
+          </cell>
+          <cell r="K44">
+            <v>0</v>
+          </cell>
+          <cell r="L44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>9988476</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>Плавленый продукт с Сыром колбасный копченый 40% СТМ "Коровино" 400гр</v>
+          </cell>
+          <cell r="C45">
+            <v>28</v>
+          </cell>
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+          <cell r="G45">
+            <v>0.4</v>
+          </cell>
+          <cell r="H45">
+            <v>0</v>
+          </cell>
+          <cell r="J45">
+            <v>0</v>
+          </cell>
+          <cell r="K45">
+            <v>0</v>
+          </cell>
+          <cell r="L45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>9988438</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>Плавленый Сыр 45% "С ветчиной" СТМ "ПапаМожет" 180гр</v>
+          </cell>
+          <cell r="C46">
+            <v>16</v>
+          </cell>
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+          <cell r="G46">
+            <v>0.18</v>
+          </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
+          <cell r="J46">
+            <v>0</v>
+          </cell>
+          <cell r="K46">
+            <v>0</v>
+          </cell>
+          <cell r="L46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>9988445</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>Плавленый Сыр 45% "С грибами" СТМ "ПапаМожет" 180гр</v>
+          </cell>
+          <cell r="C47">
+            <v>16</v>
+          </cell>
+          <cell r="D47">
+            <v>160</v>
+          </cell>
+          <cell r="F47">
+            <v>10</v>
+          </cell>
+          <cell r="G47">
+            <v>0.18</v>
+          </cell>
+          <cell r="H47">
+            <v>28.799999999999997</v>
+          </cell>
+          <cell r="J47">
+            <v>192</v>
+          </cell>
+          <cell r="K47">
+            <v>0</v>
+          </cell>
+          <cell r="L47">
+            <v>352</v>
+          </cell>
+          <cell r="M47" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>8785204</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Сыр полутвердый "Российский" с массовой долей жира в пересчете на сухое вещество 50%, брус из блока 1/5, пленка желтая, короб складной, весовой</v>
+          </cell>
+          <cell r="C48">
+            <v>5</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48">
+            <v>3.2</v>
+          </cell>
+          <cell r="H48">
+            <v>0</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>Средний вес короба 16,5( вес 1 брус 3,2кг)</v>
+          </cell>
+          <cell r="J48">
+            <v>0</v>
+          </cell>
+          <cell r="K48">
+            <v>0</v>
+          </cell>
+          <cell r="L48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>8785259</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Сыр полутвердый "Тильзитер" с массовой долей жира в пересчете на сухое вещество 45%, брус из блока 1/5, пленка желтая, короб складной, весовой</v>
+          </cell>
+          <cell r="C49">
+            <v>5</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49">
+            <v>3.2</v>
+          </cell>
+          <cell r="H49">
+            <v>0</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>Средний вес короба 16,5( вес 1 брус 3,2кг)</v>
+          </cell>
+          <cell r="J49">
+            <v>0</v>
+          </cell>
+          <cell r="K49">
+            <v>0</v>
+          </cell>
+          <cell r="L49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>9988421</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>Творожный Сыр 60 % С маринованными огурчиками и укропом СТМ "ПапаМожет" 140гр</v>
+          </cell>
+          <cell r="C50">
+            <v>16</v>
+          </cell>
+          <cell r="D50">
+            <v>80</v>
+          </cell>
+          <cell r="F50">
+            <v>5</v>
+          </cell>
+          <cell r="G50">
+            <v>0.14000000000000001</v>
+          </cell>
+          <cell r="H50">
+            <v>11.200000000000001</v>
+          </cell>
+          <cell r="J50">
+            <v>192</v>
+          </cell>
+          <cell r="K50">
+            <v>0</v>
+          </cell>
+          <cell r="L50">
+            <v>272</v>
+          </cell>
+          <cell r="M50" t="str">
+            <v>Весь объем</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>ИТОГО вес поставки в КГ</v>
+          </cell>
+          <cell r="H51">
+            <v>5722.2400000000016</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>8995.4400000000023</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,27 +2606,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="40.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="10" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="43.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25">
+    <row r="1" spans="1:13" ht="38.25">
       <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
@@ -955,8 +2641,17 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -985,7 +2680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>6159826</v>
       </c>
@@ -1009,8 +2704,24 @@
         <v>0</v>
       </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="1">
+        <f>Бердянск!D3+Бердянск!E3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f>Донецк!D3+Донецк!E3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f>D3+E3+J3+K3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f>VLOOKUP(A3,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="10">
         <v>3350098</v>
       </c>
@@ -1034,8 +2745,24 @@
         <v>0</v>
       </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1">
+        <f>Бердянск!D4+Бердянск!E4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f>Донецк!D4+Донецк!E4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L50" si="0">D4+E4+J4+K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <f>VLOOKUP(A4,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>2700004</v>
       </c>
@@ -1063,8 +2790,24 @@
       <c r="I5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="1">
+        <f>Бердянск!D5+Бердянск!E5</f>
+        <v>280</v>
+      </c>
+      <c r="K5" s="1">
+        <f>Донецк!D5+Донецк!E5</f>
+        <v>80</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>VLOOKUP(A5,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Есть весь объем, но от другого производителя</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>6159796</v>
       </c>
@@ -1088,8 +2831,24 @@
         <v>0</v>
       </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1">
+        <f>Бердянск!D6+Бердянск!E6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f>Донецк!D6+Донецк!E6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <f>VLOOKUP(A6,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="10">
         <v>3350104</v>
       </c>
@@ -1113,8 +2872,24 @@
         <v>0</v>
       </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1">
+        <f>Бердянск!D7+Бердянск!E7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f>Донецк!D7+Донецк!E7</f>
+        <v>132</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f>VLOOKUP(A7,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Есть весь объем, но от другого производителя</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="19">
         <v>2700002</v>
       </c>
@@ -1142,8 +2917,24 @@
       <c r="I8" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <f>Бердянск!D8+Бердянск!E8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <f>Донецк!D8+Донецк!E8</f>
+        <v>140</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>VLOOKUP(A8,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Есть весь объем, но от другого производителя</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="43">
         <v>5521103</v>
       </c>
@@ -1167,8 +2958,24 @@
         <v>0</v>
       </c>
       <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1">
+        <f>Бердянск!D9+Бердянск!E9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f>Донецк!D9+Донецк!E9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f>VLOOKUP(A9,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="32">
         <v>3350111</v>
       </c>
@@ -1192,8 +2999,24 @@
         <v>0</v>
       </c>
       <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1">
+        <f>Бердянск!D10+Бердянск!E10</f>
+        <v>108</v>
+      </c>
+      <c r="K10" s="1">
+        <f>Донецк!D10+Донецк!E10</f>
+        <v>120</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f>VLOOKUP(A10,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Есть весь объем, но от другого производителя</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="26">
         <v>2700005</v>
       </c>
@@ -1221,8 +3044,24 @@
       <c r="I11" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1">
+        <f>Бердянск!D11+Бердянск!E11</f>
+        <v>280</v>
+      </c>
+      <c r="K11" s="1">
+        <f>Донецк!D11+Донецк!E11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f>VLOOKUP(A11,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Есть весь объем, но от другого производителя</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="26">
         <v>6159833</v>
       </c>
@@ -1246,8 +3085,24 @@
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1">
+        <f>Бердянск!D12+Бердянск!E12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f>Донецк!D12+Донецк!E12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f>VLOOKUP(A12,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="32">
         <v>3350128</v>
       </c>
@@ -1273,8 +3128,24 @@
         <v>84</v>
       </c>
       <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1">
+        <f>Бердянск!D13+Бердянск!E13</f>
+        <v>132</v>
+      </c>
+      <c r="K13" s="1">
+        <f>Донецк!D13+Донецк!E13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f>VLOOKUP(A13,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="26">
         <v>2700001</v>
       </c>
@@ -1302,8 +3173,24 @@
       <c r="I14" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1">
+        <f>Бердянск!D14+Бердянск!E14</f>
+        <v>380</v>
+      </c>
+      <c r="K14" s="1">
+        <f>Донецк!D14+Донецк!E14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f>VLOOKUP(A14,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="26">
         <v>6159819</v>
       </c>
@@ -1327,8 +3214,24 @@
         <v>0</v>
       </c>
       <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1">
+        <f>Бердянск!D15+Бердянск!E15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f>Донецк!D15+Донецк!E15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f>VLOOKUP(A15,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="26">
         <v>99876543</v>
       </c>
@@ -1352,8 +3255,24 @@
         <v>0</v>
       </c>
       <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1">
+        <f>Бердянск!D16+Бердянск!E16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f>Донецк!D16+Донецк!E16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f>VLOOKUP(A16,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="26">
         <v>6159802</v>
       </c>
@@ -1377,8 +3296,24 @@
         <v>0</v>
       </c>
       <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="1">
+        <f>Бердянск!D17+Бердянск!E17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f>Донецк!D17+Донецк!E17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f>VLOOKUP(A17,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="26">
         <v>99876550</v>
       </c>
@@ -1404,8 +3339,24 @@
         <v>21.6</v>
       </c>
       <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1">
+        <f>Бердянск!D18+Бердянск!E18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f>Донецк!D18+Донецк!E18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f>VLOOKUP(A18,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="26">
         <v>6159949</v>
       </c>
@@ -1433,8 +3384,24 @@
       <c r="I19" s="30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1">
+        <f>Бердянск!D19+Бердянск!E19</f>
+        <v>42</v>
+      </c>
+      <c r="K19" s="1">
+        <f>Донецк!D19+Донецк!E19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f>VLOOKUP(A19,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="26">
         <v>6159901</v>
       </c>
@@ -1460,8 +3427,24 @@
       <c r="I20" s="30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="1">
+        <f>Бердянск!D20+Бердянск!E20</f>
+        <v>441</v>
+      </c>
+      <c r="K20" s="1">
+        <f>Донецк!D20+Донецк!E20</f>
+        <v>7</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f>VLOOKUP(A20,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="26">
         <v>99876321</v>
       </c>
@@ -1485,8 +3468,24 @@
         <v>0</v>
       </c>
       <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="1">
+        <f>Бердянск!D21+Бердянск!E21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f>Донецк!D21+Донецк!E21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f>VLOOKUP(A21,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="26">
         <v>99876352</v>
       </c>
@@ -1510,8 +3509,24 @@
         <v>0</v>
       </c>
       <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1">
+      <c r="J22" s="1">
+        <f>Бердянск!D22+Бердянск!E22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <f>Донецк!D22+Донецк!E22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f>VLOOKUP(A22,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="11" customFormat="1">
       <c r="A23" s="26">
         <v>783798</v>
       </c>
@@ -1537,8 +3552,24 @@
         <v>255.60000000000002</v>
       </c>
       <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1">
+      <c r="J23" s="1">
+        <f>Бердянск!D23+Бердянск!E23</f>
+        <v>234</v>
+      </c>
+      <c r="K23" s="1">
+        <f>Донецк!D23+Донецк!E23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>1512</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f>VLOOKUP(A23,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="11" customFormat="1">
       <c r="A24" s="26">
         <v>783811</v>
       </c>
@@ -1566,8 +3597,24 @@
       <c r="I24" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1">
+      <c r="J24" s="1">
+        <f>Бердянск!D24+Бердянск!E24</f>
+        <v>135</v>
+      </c>
+      <c r="K24" s="1">
+        <f>Донецк!D24+Донецк!E24</f>
+        <v>195</v>
+      </c>
+      <c r="L24" s="45">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="M24" s="45" t="str">
+        <f>VLOOKUP(A24,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Могу отдать 500кг</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="11" customFormat="1">
       <c r="A25" s="26">
         <v>783804</v>
       </c>
@@ -1593,8 +3640,24 @@
         <v>129.6</v>
       </c>
       <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1">
+      <c r="J25" s="1">
+        <f>Бердянск!D25+Бердянск!E25</f>
+        <v>162</v>
+      </c>
+      <c r="K25" s="1">
+        <f>Донецк!D25+Донецк!E25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="M25" s="45" t="str">
+        <f>VLOOKUP(A25,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Нет на остатках. Могу дозаказать на отгрузку на следующей неделе.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="11" customFormat="1">
       <c r="A26" s="26">
         <v>783828</v>
       </c>
@@ -1622,8 +3685,24 @@
       <c r="I26" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1">
+      <c r="J26" s="1">
+        <f>Бердянск!D26+Бердянск!E26</f>
+        <v>375</v>
+      </c>
+      <c r="K26" s="1">
+        <f>Донецк!D26+Донецк!E26</f>
+        <v>2505</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" si="0"/>
+        <v>3315</v>
+      </c>
+      <c r="M26" s="45" t="str">
+        <f>VLOOKUP(A26,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Могу отдать только 700 кг</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="11" customFormat="1">
       <c r="A27" s="40">
         <v>8784474</v>
       </c>
@@ -1649,8 +3728,24 @@
       <c r="I27" s="44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1">
+      <c r="J27" s="1">
+        <f>Бердянск!D27+Бердянск!E27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <f>Донецк!D27+Донецк!E27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <f>VLOOKUP(A27,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="11" customFormat="1">
       <c r="A28" s="26">
         <v>9877076</v>
       </c>
@@ -1665,19 +3760,35 @@
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="37">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F36" si="1">D28/C28</f>
         <v>111</v>
       </c>
       <c r="G28" s="27">
         <v>0.19</v>
       </c>
       <c r="H28" s="30">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H40" si="2">G28*D28</f>
         <v>168.72</v>
       </c>
       <c r="I28" s="37"/>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1">
+      <c r="J28" s="1">
+        <f>Бердянск!D28+Бердянск!E28</f>
+        <v>224</v>
+      </c>
+      <c r="K28" s="1">
+        <f>Донецк!D28+Донецк!E28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="45">
+        <f t="shared" si="0"/>
+        <v>1112</v>
+      </c>
+      <c r="M28" s="45" t="str">
+        <f>VLOOKUP(A28,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Нет на остатках. Могу дозаказать на отгрузку на следующей неделе.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="11" customFormat="1">
       <c r="A29" s="26">
         <v>8444194</v>
       </c>
@@ -1692,19 +3803,35 @@
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="37">
-        <f>D29/C29</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G29" s="27">
         <v>0.1</v>
       </c>
       <c r="H29" s="30">
-        <f>G29*D29</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="I29" s="37"/>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1">
+      <c r="J29" s="1">
+        <f>Бердянск!D29+Бердянск!E29</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <f>Донецк!D29+Донецк!E29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f>VLOOKUP(A29,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="11" customFormat="1">
       <c r="A30" s="26">
         <v>8444187</v>
       </c>
@@ -1719,19 +3846,35 @@
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="37">
-        <f>D30/C30</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G30" s="27">
         <v>0.1</v>
       </c>
       <c r="H30" s="30">
-        <f>G30*D30</f>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="I30" s="37"/>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1">
+      <c r="J30" s="1">
+        <f>Бердянск!D30+Бердянск!E30</f>
+        <v>546</v>
+      </c>
+      <c r="K30" s="1">
+        <f>Донецк!D30+Донецк!E30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="45">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="M30" s="45" t="str">
+        <f>VLOOKUP(A30,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Нет на остатках. Могу дозаказать на отгрузку на следующей неделе.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="11" customFormat="1">
       <c r="A31" s="26">
         <v>8444163</v>
       </c>
@@ -1744,19 +3887,35 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="37">
-        <f>D31/C31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="27">
         <v>0.1</v>
       </c>
       <c r="H31" s="30">
-        <f>G31*D31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="37"/>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1">
+      <c r="J31" s="1">
+        <f>Бердянск!D31+Бердянск!E31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <f>Донецк!D31+Донецк!E31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <f>VLOOKUP(A31,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="11" customFormat="1">
       <c r="A32" s="26">
         <v>8444170</v>
       </c>
@@ -1771,19 +3930,35 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="37">
-        <f>D32/C32</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="G32" s="27">
         <v>0.1</v>
       </c>
       <c r="H32" s="30">
-        <f>G32*D32</f>
+        <f t="shared" si="2"/>
         <v>28.8</v>
       </c>
       <c r="I32" s="37"/>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1">
+      <c r="J32" s="1">
+        <f>Бердянск!D32+Бердянск!E32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <f>Донецк!D32+Донецк!E32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f>VLOOKUP(A32,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="11" customFormat="1">
       <c r="A33" s="26">
         <v>9988377</v>
       </c>
@@ -1796,19 +3971,35 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="37">
-        <f>D33/C33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" s="27">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="30">
-        <f>G33*D33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I33" s="37"/>
-    </row>
-    <row r="34" spans="1:9" s="11" customFormat="1">
+      <c r="J33" s="1">
+        <f>Бердянск!D33+Бердянск!E33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f>Донецк!D33+Донецк!E33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f>VLOOKUP(A33,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="11" customFormat="1">
       <c r="A34" s="26">
         <v>9988391</v>
       </c>
@@ -1823,19 +4014,35 @@
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="37">
-        <f>D34/C34</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="G34" s="27">
         <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="30">
-        <f>G34*D34</f>
+        <f t="shared" si="2"/>
         <v>51.52</v>
       </c>
       <c r="I34" s="37"/>
-    </row>
-    <row r="35" spans="1:9" s="11" customFormat="1">
+      <c r="J34" s="1">
+        <f>Бердянск!D34+Бердянск!E34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f>Донецк!D34+Донецк!E34</f>
+        <v>32</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f>VLOOKUP(A34,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="11" customFormat="1">
       <c r="A35" s="26">
         <v>5034819</v>
       </c>
@@ -1848,19 +4055,35 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
       <c r="F35" s="37">
-        <f>D35/C35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="27">
         <v>0.18</v>
       </c>
       <c r="H35" s="30">
-        <f>G35*D35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I35" s="37"/>
-    </row>
-    <row r="36" spans="1:9" s="11" customFormat="1">
+      <c r="J35" s="1">
+        <f>Бердянск!D35+Бердянск!E35</f>
+        <v>360</v>
+      </c>
+      <c r="K35" s="1">
+        <f>Донецк!D35+Донецк!E35</f>
+        <v>12</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f>VLOOKUP(A35,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="11" customFormat="1">
       <c r="A36" s="26">
         <v>5034864</v>
       </c>
@@ -1875,19 +4098,35 @@
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="37">
-        <f>D36/C36</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G36" s="27">
         <v>0.18</v>
       </c>
       <c r="H36" s="30">
-        <f>G36*D36</f>
+        <f t="shared" si="2"/>
         <v>20.52</v>
       </c>
       <c r="I36" s="37"/>
-    </row>
-    <row r="37" spans="1:9" s="11" customFormat="1">
+      <c r="J36" s="1">
+        <f>Бердянск!D36+Бердянск!E36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <f>Донецк!D36+Донецк!E36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f>VLOOKUP(A36,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="11" customFormat="1">
       <c r="A37" s="26">
         <v>5037308</v>
       </c>
@@ -1907,14 +4146,30 @@
         <v>4.5</v>
       </c>
       <c r="H37" s="37">
-        <f>G37*D37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="11" customFormat="1">
+      <c r="J37" s="1">
+        <f>Бердянск!D37+Бердянск!E37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f>Донецк!D37+Донецк!E37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <f>VLOOKUP(A37,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="11" customFormat="1">
       <c r="A38" s="40">
         <v>2981244</v>
       </c>
@@ -1934,14 +4189,30 @@
         <v>1.3</v>
       </c>
       <c r="H38" s="37">
-        <f>G38*D38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I38" s="37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="11" customFormat="1">
+      <c r="J38" s="1">
+        <f>Бердянск!D38+Бердянск!E38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <f>Донецк!D38+Донецк!E38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <f>VLOOKUP(A38,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="11" customFormat="1">
       <c r="A39" s="26">
         <v>3402729</v>
       </c>
@@ -1961,12 +4232,28 @@
         <v>0.09</v>
       </c>
       <c r="H39" s="37">
-        <f>G39*D39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1">
+      <c r="J39" s="1">
+        <f>Бердянск!D39+Бердянск!E39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f>Донецк!D39+Донецк!E39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f>VLOOKUP(A39,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="11" customFormat="1">
       <c r="A40" s="26">
         <v>3402712</v>
       </c>
@@ -1986,12 +4273,28 @@
         <v>0.2</v>
       </c>
       <c r="H40" s="37">
-        <f>G40*D40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I40" s="37"/>
-    </row>
-    <row r="41" spans="1:9" s="11" customFormat="1">
+      <c r="J40" s="1">
+        <f>Бердянск!D40+Бердянск!E40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <f>Донецк!D40+Донецк!E40</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f>VLOOKUP(A40,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="11" customFormat="1">
       <c r="A41" s="26">
         <v>8785198</v>
       </c>
@@ -2017,8 +4320,24 @@
       <c r="I41" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="11" customFormat="1">
+      <c r="J41" s="1">
+        <f>Бердянск!D41+Бердянск!E41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <f>Донецк!D41+Донецк!E41</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <f>VLOOKUP(A41,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="11" customFormat="1">
       <c r="A42" s="26">
         <v>8785211</v>
       </c>
@@ -2044,8 +4363,24 @@
       <c r="I42" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="11" customFormat="1">
+      <c r="J42" s="1">
+        <f>Бердянск!D42+Бердянск!E42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f>Донецк!D42+Донецк!E42</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f>VLOOKUP(A42,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="11" customFormat="1">
       <c r="A43" s="26">
         <v>8785228</v>
       </c>
@@ -2071,8 +4406,24 @@
       <c r="I43" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="11" customFormat="1">
+      <c r="J43" s="1">
+        <f>Бердянск!D43+Бердянск!E43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <f>Донецк!D43+Донецк!E43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <f>VLOOKUP(A43,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="11" customFormat="1">
       <c r="A44" s="40">
         <v>9988452</v>
       </c>
@@ -2096,8 +4447,24 @@
         <v>0</v>
       </c>
       <c r="I44" s="37"/>
-    </row>
-    <row r="45" spans="1:9" s="11" customFormat="1">
+      <c r="J44" s="1">
+        <f>Бердянск!D44+Бердянск!E44</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <f>Донецк!D44+Донецк!E44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <f>VLOOKUP(A44,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="11" customFormat="1">
       <c r="A45" s="40">
         <v>9988476</v>
       </c>
@@ -2121,8 +4488,24 @@
         <v>0</v>
       </c>
       <c r="I45" s="37"/>
-    </row>
-    <row r="46" spans="1:9" s="11" customFormat="1">
+      <c r="J45" s="1">
+        <f>Бердянск!D45+Бердянск!E45</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <f>Донецк!D45+Донецк!E45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <f>VLOOKUP(A45,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="11" customFormat="1">
       <c r="A46" s="40">
         <v>9988438</v>
       </c>
@@ -2146,8 +4529,24 @@
         <v>0</v>
       </c>
       <c r="I46" s="37"/>
-    </row>
-    <row r="47" spans="1:9" s="11" customFormat="1">
+      <c r="J46" s="1">
+        <f>Бердянск!D46+Бердянск!E46</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f>Донецк!D46+Донецк!E46</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <f>VLOOKUP(A46,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="11" customFormat="1">
       <c r="A47" s="40">
         <v>9988445</v>
       </c>
@@ -2173,8 +4572,24 @@
         <v>28.799999999999997</v>
       </c>
       <c r="I47" s="37"/>
-    </row>
-    <row r="48" spans="1:9" s="11" customFormat="1">
+      <c r="J47" s="1">
+        <f>Бердянск!D47+Бердянск!E47</f>
+        <v>192</v>
+      </c>
+      <c r="K47" s="1">
+        <f>Донецк!D47+Донецк!E47</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f>VLOOKUP(A47,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="11" customFormat="1">
       <c r="A48" s="40">
         <v>8785204</v>
       </c>
@@ -2200,8 +4615,24 @@
       <c r="I48" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="11" customFormat="1">
+      <c r="J48" s="1">
+        <f>Бердянск!D48+Бердянск!E48</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <f>Донецк!D48+Донецк!E48</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <f>VLOOKUP(A48,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="11" customFormat="1">
       <c r="A49" s="40">
         <v>8785259</v>
       </c>
@@ -2227,8 +4658,24 @@
       <c r="I49" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="11" customFormat="1">
+      <c r="J49" s="1">
+        <f>Бердянск!D49+Бердянск!E49</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <f>Донецк!D49+Донецк!E49</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <f>VLOOKUP(A49,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="11" customFormat="1">
       <c r="A50" s="40">
         <v>9988421</v>
       </c>
@@ -2254,8 +4701,24 @@
         <v>11.200000000000001</v>
       </c>
       <c r="I50" s="37"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="1">
+        <f>Бердянск!D50+Бердянск!E50</f>
+        <v>192</v>
+      </c>
+      <c r="K50" s="1">
+        <f>Донецк!D50+Донецк!E50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f>VLOOKUP(A50,[1]Мелитополь!$A:$M,13,0)</f>
+        <v>Весь объем</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="B51" s="24" t="s">
         <v>13</v>
       </c>
@@ -2264,7 +4727,7 @@
         <v>4211.9600000000009</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <f>H51+Бердянск!H51+Донецк!H51</f>
         <v>9452.7200000000012</v>
@@ -2286,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3029,14 +5492,14 @@
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="37">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F36" si="0">D28/C28</f>
         <v>28</v>
       </c>
       <c r="G28" s="27">
         <v>0.19</v>
       </c>
       <c r="H28" s="30">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H40" si="1">G28*D28</f>
         <v>42.56</v>
       </c>
       <c r="I28" s="37"/>
@@ -3054,14 +5517,14 @@
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="37">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="27">
         <v>0.1</v>
       </c>
       <c r="H29" s="30">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="37"/>
@@ -3081,14 +5544,14 @@
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="37">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="G30" s="27">
         <v>0.1</v>
       </c>
       <c r="H30" s="30">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>54.6</v>
       </c>
       <c r="I30" s="37"/>
@@ -3106,14 +5569,14 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="37">
-        <f>D31/C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="27">
         <v>0.1</v>
       </c>
       <c r="H31" s="30">
-        <f>G31*D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="37"/>
@@ -3131,14 +5594,14 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="37">
-        <f>D32/C32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="27">
         <v>0.1</v>
       </c>
       <c r="H32" s="30">
-        <f>G32*D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="37"/>
@@ -3156,14 +5619,14 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="37">
-        <f>D33/C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="27">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="30">
-        <f>G33*D33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="37"/>
@@ -3181,14 +5644,14 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="37">
-        <f>D34/C34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="27">
         <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="30">
-        <f>G34*D34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="37"/>
@@ -3208,14 +5671,14 @@
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="37">
-        <f>D35/C35</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G35" s="27">
         <v>0.18</v>
       </c>
       <c r="H35" s="30">
-        <f>G35*D35</f>
+        <f t="shared" si="1"/>
         <v>64.8</v>
       </c>
       <c r="I35" s="37"/>
@@ -3233,14 +5696,14 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="37">
-        <f>D36/C36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G36" s="27">
         <v>0.18</v>
       </c>
       <c r="H36" s="30">
-        <f>G36*D36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="37"/>
@@ -3265,7 +5728,7 @@
         <v>4.5</v>
       </c>
       <c r="H37" s="37">
-        <f>G37*D37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="37" t="s">
@@ -3292,7 +5755,7 @@
         <v>1.3</v>
       </c>
       <c r="H38" s="37">
-        <f>G38*D38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="37" t="s">
@@ -3319,7 +5782,7 @@
         <v>0.09</v>
       </c>
       <c r="H39" s="37">
-        <f>G39*D39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="37"/>
@@ -3344,7 +5807,7 @@
         <v>0.2</v>
       </c>
       <c r="H40" s="37">
-        <f>G40*D40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="37"/>
@@ -3632,7 +6095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4365,14 +6828,14 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="37">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F36" si="0">D28/C28</f>
         <v>0</v>
       </c>
       <c r="G28" s="27">
         <v>0.19</v>
       </c>
       <c r="H28" s="30">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H40" si="1">G28*D28</f>
         <v>0</v>
       </c>
       <c r="I28" s="37"/>
@@ -4390,14 +6853,14 @@
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="37">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="27">
         <v>0.1</v>
       </c>
       <c r="H29" s="30">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="37"/>
@@ -4415,14 +6878,14 @@
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="37">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="27">
         <v>0.1</v>
       </c>
       <c r="H30" s="30">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="37"/>
@@ -4440,14 +6903,14 @@
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="37">
-        <f>D31/C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="27">
         <v>0.1</v>
       </c>
       <c r="H31" s="30">
-        <f>G31*D31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="37"/>
@@ -4465,14 +6928,14 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="37">
-        <f>D32/C32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="27">
         <v>0.1</v>
       </c>
       <c r="H32" s="30">
-        <f>G32*D32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="37"/>
@@ -4490,14 +6953,14 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="37">
-        <f>D33/C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="27">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="30">
-        <f>G33*D33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="37"/>
@@ -4517,14 +6980,14 @@
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="37">
-        <f>D34/C34</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G34" s="27">
         <v>0.14000000000000001</v>
       </c>
       <c r="H34" s="30">
-        <f>G34*D34</f>
+        <f t="shared" si="1"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="I34" s="37"/>
@@ -4544,14 +7007,14 @@
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="37">
-        <f>D35/C35</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G35" s="27">
         <v>0.18</v>
       </c>
       <c r="H35" s="30">
-        <f>G35*D35</f>
+        <f t="shared" si="1"/>
         <v>2.16</v>
       </c>
       <c r="I35" s="37"/>
@@ -4569,14 +7032,14 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="37">
-        <f>D36/C36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G36" s="27">
         <v>0.18</v>
       </c>
       <c r="H36" s="30">
-        <f>G36*D36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="37"/>
@@ -4601,7 +7064,7 @@
         <v>4.5</v>
       </c>
       <c r="H37" s="37">
-        <f>G37*D37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="37" t="s">
@@ -4628,7 +7091,7 @@
         <v>1.3</v>
       </c>
       <c r="H38" s="37">
-        <f>G38*D38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="37" t="s">
@@ -4655,7 +7118,7 @@
         <v>0.09</v>
       </c>
       <c r="H39" s="37">
-        <f>G39*D39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="37"/>
@@ -4680,7 +7143,7 @@
         <v>0.2</v>
       </c>
       <c r="H40" s="37">
-        <f>G40*D40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="37"/>
